--- a/BSClient/Template/Excels/KichBanKC.xlsx
+++ b/BSClient/Template/Excels/KichBanKC.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,18 +391,7 @@
         <v>911</v>
       </c>
       <c r="C2">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1121</v>
-      </c>
-      <c r="C3">
-        <v>911</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
